--- a/output3.xlsx
+++ b/output3.xlsx
@@ -369,6 +369,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -392,6 +393,11 @@
           <t>脆弱性赋值</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>已有安全措施</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
